--- a/sweetest/testcase/Baidu-TestCase.xlsx
+++ b/sweetest/testcase/Baidu-TestCase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="baidu" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="80">
   <si>
     <t xml:space="preserve">用例编号</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t xml:space="preserve">text=自动化测试,text1=&lt;Keys.ENTER&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
   </si>
   <si>
     <t xml:space="preserve">点击</t>
@@ -176,6 +179,9 @@
     <t xml:space="preserve">搜索结果#1</t>
   </si>
   <si>
+    <t xml:space="preserve">标签页名=百度搜索页面</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;title&gt;</t>
   </si>
   <si>
@@ -192,9 +198,6 @@
   </si>
   <si>
     <t xml:space="preserve">keywords=搜狗,title=搜狗*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
   </si>
   <si>
     <r>
@@ -640,10 +643,10 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="N29" activeCellId="0" sqref="N29"/>
+      <selection pane="bottomLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -804,7 +807,9 @@
         <v>22</v>
       </c>
       <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="M4" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
@@ -817,11 +822,11 @@
         <v>2</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="9"/>
@@ -848,7 +853,7 @@
         <v>25</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -858,18 +863,18 @@
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
       <c r="P6" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" s="11" t="n">
         <v>1</v>
@@ -884,7 +889,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -903,11 +908,11 @@
         <v>2</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="9"/>
@@ -934,7 +939,7 @@
         <v>25</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -953,13 +958,15 @@
         <v>4</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="12"/>
+        <v>42</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
@@ -984,7 +991,7 @@
         <v>25</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -997,34 +1004,32 @@
     </row>
     <row r="12" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="10"/>
-      <c r="M12" s="14" t="s">
-        <v>48</v>
-      </c>
+      <c r="M12" s="14"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
@@ -1037,18 +1042,18 @@
         <v>2</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="10"/>
@@ -1072,7 +1077,7 @@
         <v>25</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1085,33 +1090,33 @@
     </row>
     <row r="15" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="10"/>
       <c r="M15" s="14" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
@@ -1122,14 +1127,14 @@
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>23</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="9"/>
@@ -1146,14 +1151,14 @@
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="9"/>
@@ -1170,14 +1175,14 @@
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="9"/>
@@ -1191,33 +1196,33 @@
     </row>
     <row r="19" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="10"/>
       <c r="M19" s="14" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -1231,18 +1236,18 @@
         <v>2</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="10"/>
@@ -1266,7 +1271,7 @@
         <v>25</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1285,18 +1290,18 @@
         <v>4</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K22" s="9"/>
       <c r="L22" s="10"/>
@@ -1320,7 +1325,7 @@
         <v>25</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1333,33 +1338,33 @@
     </row>
     <row r="24" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="10"/>
       <c r="M24" s="14" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
@@ -1367,35 +1372,35 @@
     </row>
     <row r="25" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="10"/>
       <c r="M25" s="10" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
@@ -1409,14 +1414,14 @@
         <v>2</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1641,11 +1646,11 @@
         <v>2</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="9"/>
@@ -1672,7 +1677,7 @@
         <v>25</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -1682,18 +1687,18 @@
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
       <c r="P6" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" s="11" t="n">
         <v>1</v>
@@ -1708,7 +1713,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -1727,11 +1732,11 @@
         <v>2</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="9"/>
@@ -1758,7 +1763,7 @@
         <v>25</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1777,11 +1782,11 @@
         <v>4</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="9"/>
@@ -1808,7 +1813,7 @@
         <v>25</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1821,33 +1826,33 @@
     </row>
     <row r="12" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="10"/>
       <c r="M12" s="14" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
@@ -1861,18 +1866,18 @@
         <v>2</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="10"/>
@@ -1896,7 +1901,7 @@
         <v>25</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1909,33 +1914,33 @@
     </row>
     <row r="15" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="10"/>
       <c r="M15" s="14" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
@@ -1946,14 +1951,14 @@
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>23</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="9"/>
@@ -1970,14 +1975,14 @@
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="9"/>
@@ -1994,14 +1999,14 @@
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="9"/>
@@ -2015,33 +2020,33 @@
     </row>
     <row r="19" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="10"/>
       <c r="M19" s="14" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -2055,18 +2060,18 @@
         <v>2</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="10"/>
@@ -2090,7 +2095,7 @@
         <v>25</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2109,18 +2114,18 @@
         <v>4</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K22" s="9"/>
       <c r="L22" s="10"/>
@@ -2144,7 +2149,7 @@
         <v>25</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2157,33 +2162,33 @@
     </row>
     <row r="24" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="10"/>
       <c r="M24" s="14" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
@@ -2191,35 +2196,35 @@
     </row>
     <row r="25" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="10"/>
       <c r="M25" s="10" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
@@ -2233,14 +2238,14 @@
         <v>2</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2288,10 +2293,10 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="N29" activeCellId="0" sqref="N29"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2425,7 +2430,7 @@
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
     </row>
-    <row r="4" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
         <v>27</v>
       </c>
@@ -2452,7 +2457,9 @@
         <v>22</v>
       </c>
       <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="M4" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
@@ -2465,11 +2472,11 @@
         <v>2</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="9"/>
@@ -2496,7 +2503,7 @@
         <v>25</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -2506,18 +2513,18 @@
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
       <c r="P6" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" s="11" t="n">
         <v>1</v>
@@ -2532,7 +2539,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -2551,11 +2558,11 @@
         <v>2</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="9"/>
@@ -2582,7 +2589,7 @@
         <v>25</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -2601,11 +2608,11 @@
         <v>4</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="9"/>
@@ -2632,7 +2639,7 @@
         <v>25</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -2645,34 +2652,32 @@
     </row>
     <row r="12" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="10"/>
-      <c r="M12" s="14" t="s">
-        <v>48</v>
-      </c>
+      <c r="M12" s="14"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
@@ -2685,18 +2690,18 @@
         <v>2</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="10"/>
@@ -2720,7 +2725,7 @@
         <v>25</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -2733,33 +2738,33 @@
     </row>
     <row r="15" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="10"/>
       <c r="M15" s="14" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
@@ -2770,14 +2775,14 @@
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>23</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="9"/>
@@ -2794,14 +2799,14 @@
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="9"/>
@@ -2818,14 +2823,14 @@
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="9"/>
@@ -2839,33 +2844,33 @@
     </row>
     <row r="19" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="10"/>
       <c r="M19" s="14" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -2879,18 +2884,18 @@
         <v>2</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="10"/>
@@ -2914,7 +2919,7 @@
         <v>25</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2933,18 +2938,18 @@
         <v>4</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K22" s="9"/>
       <c r="L22" s="10"/>
@@ -2968,7 +2973,7 @@
         <v>25</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2981,33 +2986,33 @@
     </row>
     <row r="24" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="10"/>
       <c r="M24" s="14" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
@@ -3015,35 +3020,35 @@
     </row>
     <row r="25" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="10"/>
       <c r="M25" s="10" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
@@ -3057,14 +3062,14 @@
         <v>2</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>

--- a/sweetest/testcase/Baidu-TestCase.xlsx
+++ b/sweetest/testcase/Baidu-TestCase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="baidu" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="1baidu" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="baidu2" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="baidu1" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="2baidu" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="关键字" vbProcedure="false">#REF!</definedName>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="78">
   <si>
     <t xml:space="preserve">用例编号</t>
   </si>
@@ -94,7 +94,7 @@
     <t xml:space="preserve">百度搜索链接</t>
   </si>
   <si>
-    <t xml:space="preserve">标签页名=百度搜索窗口</t>
+    <t xml:space="preserve">标签页名=百度搜索页面</t>
   </si>
   <si>
     <t xml:space="preserve">H</t>
@@ -125,9 +125,6 @@
   </si>
   <si>
     <t xml:space="preserve">text=自动化测试,text1=&lt;Keys.ENTER&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
   </si>
   <si>
     <t xml:space="preserve">点击</t>
@@ -179,36 +176,15 @@
     <t xml:space="preserve">搜索结果#1</t>
   </si>
   <si>
-    <t xml:space="preserve">标签页名=百度搜索页面</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;title&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAIDU_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">搜索：搜狗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">执行</t>
-  </si>
-  <si>
-    <t xml:space="preserve">用例片段</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keywords=搜狗,title=搜狗*</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFC0504D"/>
+        <color rgb="FF0070C0"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">title=</t>
+      <t xml:space="preserve">标签页名=</t>
     </r>
     <r>
       <rPr>
@@ -216,10 +192,27 @@
         <color rgb="FFC0504D"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">text</t>
+      <t xml:space="preserve">&lt;keywords&gt;</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;title&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAIDU_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">搜索：搜狗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">执行</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用例片段</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keywords=搜狗,title=搜狗*</t>
   </si>
   <si>
     <t xml:space="preserve">BAIDU_003</t>
@@ -296,12 +289,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">title=text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">行情中心*</t>
-  </si>
-  <si>
     <t xml:space="preserve">雪球行情中心</t>
   </si>
   <si>
@@ -326,6 +313,9 @@
     <t xml:space="preserve">keywords=&lt;_keywords&gt;, title=&lt;_title&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
     <t xml:space="preserve">SQL</t>
   </si>
   <si>
@@ -339,6 +329,9 @@
   </si>
   <si>
     <t xml:space="preserve">stkpoolid=STKPOOLID,stkid=STKID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
   </si>
   <si>
     <t xml:space="preserve">sql#select STKPOOLID,STKID,STKNAME from ir_stkpool_member_etl where STKPOOLID='&lt;stkpoolid&gt;'</t>
@@ -357,7 +350,7 @@
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="0_ ;[RED]\-0\ "/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -428,6 +421,12 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC0504D"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -643,10 +642,10 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -718,7 +717,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -807,9 +806,7 @@
         <v>22</v>
       </c>
       <c r="L4" s="10"/>
-      <c r="M4" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="M4" s="14"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
@@ -822,11 +819,11 @@
         <v>2</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="9"/>
@@ -853,7 +850,7 @@
         <v>25</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -863,18 +860,18 @@
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
       <c r="P6" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>38</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>39</v>
       </c>
       <c r="D7" s="11" t="n">
         <v>1</v>
@@ -889,7 +886,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -908,11 +905,11 @@
         <v>2</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="9"/>
@@ -924,7 +921,7 @@
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
     </row>
-    <row r="9" s="3" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -939,7 +936,7 @@
         <v>25</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -950,7 +947,7 @@
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
     </row>
-    <row r="10" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -958,14 +955,14 @@
         <v>4</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -991,7 +988,7 @@
         <v>25</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1004,26 +1001,26 @@
     </row>
     <row r="12" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="G12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>49</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1034,51 +1031,53 @@
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
     </row>
-    <row r="13" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
+    <row r="13" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="C13" s="10"/>
       <c r="D13" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="12"/>
+        <v>36</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="I13" s="9"/>
-      <c r="J13" s="9" t="s">
-        <v>50</v>
-      </c>
+      <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
+      <c r="M13" s="14"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
     </row>
-    <row r="14" s="3" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="11" t="n">
-        <v>3</v>
+      <c r="D14" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>44</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H14" s="12"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -1088,36 +1087,26 @@
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
     </row>
-    <row r="15" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>52</v>
-      </c>
+    <row r="15" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="11" t="n">
-        <v>1</v>
+      <c r="D15" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>48</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F15" s="12"/>
       <c r="G15" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>53</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="H15" s="12"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="10"/>
-      <c r="M15" s="14" t="s">
-        <v>32</v>
-      </c>
+      <c r="M15" s="10"/>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
@@ -1127,14 +1116,14 @@
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="9"/>
@@ -1147,25 +1136,33 @@
       <c r="P16" s="10"/>
     </row>
     <row r="17" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="11" t="s">
-        <v>56</v>
+      <c r="D17" s="11" t="n">
+        <v>1</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="12"/>
+        <v>46</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>47</v>
+      </c>
       <c r="G17" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="12"/>
+        <v>36</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
+      <c r="M17" s="14"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
@@ -1174,19 +1171,23 @@
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="11" t="s">
-        <v>58</v>
+      <c r="D18" s="11" t="n">
+        <v>2</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="12"/>
+        <v>32</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="G18" s="12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
+      <c r="J18" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="K18" s="9"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
@@ -1194,115 +1195,121 @@
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
     </row>
-    <row r="19" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>61</v>
-      </c>
+    <row r="19" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>48</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F19" s="12"/>
       <c r="G19" s="12" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="10"/>
-      <c r="M19" s="14" t="s">
-        <v>32</v>
-      </c>
+      <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
     </row>
-    <row r="20" s="3" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
+    <row r="20" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="C20" s="10"/>
       <c r="D20" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" s="12"/>
+        <v>67</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>68</v>
+      </c>
       <c r="I20" s="9"/>
-      <c r="J20" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
+      <c r="M20" s="14" t="s">
+        <v>69</v>
+      </c>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
     </row>
-    <row r="21" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
+    <row r="21" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="11"/>
       <c r="D21" s="11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="12"/>
+        <v>70</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>71</v>
+      </c>
       <c r="G21" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>64</v>
+        <v>72</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
+      <c r="J21" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="K21" s="9"/>
       <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
+      <c r="M21" s="10" t="s">
+        <v>75</v>
+      </c>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
     </row>
-    <row r="22" s="3" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" s="3" customFormat="true" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>65</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F22" s="12"/>
       <c r="G22" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H22" s="12"/>
+        <v>76</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="I22" s="9"/>
-      <c r="J22" s="9" t="s">
-        <v>67</v>
-      </c>
+      <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
@@ -1310,128 +1317,10 @@
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
     </row>
-    <row r="23" s="3" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-    </row>
-    <row r="24" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-    </row>
-    <row r="25" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-    </row>
-    <row r="26" s="3" customFormat="true" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-    </row>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1447,7 +1336,7 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="G5:G26" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="G5:G22" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1472,7 +1361,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="N29" activeCellId="0" sqref="N29"/>
+      <selection pane="bottomLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1633,7 +1522,7 @@
         <v>22</v>
       </c>
       <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="M4" s="14"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
@@ -1646,11 +1535,11 @@
         <v>2</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="9"/>
@@ -1677,7 +1566,7 @@
         <v>25</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -1687,18 +1576,18 @@
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
       <c r="P6" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>38</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>39</v>
       </c>
       <c r="D7" s="11" t="n">
         <v>1</v>
@@ -1713,7 +1602,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -1732,11 +1621,11 @@
         <v>2</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="9"/>
@@ -1748,7 +1637,7 @@
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
     </row>
-    <row r="9" s="3" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -1763,7 +1652,7 @@
         <v>25</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1774,7 +1663,7 @@
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
     </row>
-    <row r="10" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -1782,13 +1671,15 @@
         <v>4</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="12"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
@@ -1813,7 +1704,7 @@
         <v>25</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1826,83 +1717,83 @@
     </row>
     <row r="12" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="G12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>49</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="10"/>
-      <c r="M12" s="14" t="s">
-        <v>32</v>
-      </c>
+      <c r="M12" s="14"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
     </row>
-    <row r="13" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
+    <row r="13" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="C13" s="10"/>
       <c r="D13" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="12"/>
+        <v>36</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="I13" s="9"/>
-      <c r="J13" s="9" t="s">
-        <v>50</v>
-      </c>
+      <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
+      <c r="M13" s="14"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
     </row>
-    <row r="14" s="3" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="11" t="n">
-        <v>3</v>
+      <c r="D14" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>44</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H14" s="12"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -1912,36 +1803,26 @@
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
     </row>
-    <row r="15" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>52</v>
-      </c>
+    <row r="15" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="11" t="n">
-        <v>1</v>
+      <c r="D15" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>48</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F15" s="12"/>
       <c r="G15" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>53</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="H15" s="12"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="10"/>
-      <c r="M15" s="14" t="s">
-        <v>32</v>
-      </c>
+      <c r="M15" s="10"/>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
@@ -1951,14 +1832,14 @@
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="9"/>
@@ -1971,25 +1852,33 @@
       <c r="P16" s="10"/>
     </row>
     <row r="17" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="11" t="s">
-        <v>56</v>
+      <c r="D17" s="11" t="n">
+        <v>1</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="12"/>
+        <v>46</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>47</v>
+      </c>
       <c r="G17" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="12"/>
+        <v>36</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
+      <c r="M17" s="14"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
@@ -1998,19 +1887,23 @@
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="11" t="s">
-        <v>58</v>
+      <c r="D18" s="11" t="n">
+        <v>2</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="12"/>
+        <v>32</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="G18" s="12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
+      <c r="J18" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="K18" s="9"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
@@ -2018,115 +1911,121 @@
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
     </row>
-    <row r="19" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>61</v>
-      </c>
+    <row r="19" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>48</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F19" s="12"/>
       <c r="G19" s="12" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="10"/>
-      <c r="M19" s="14" t="s">
-        <v>32</v>
-      </c>
+      <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
     </row>
-    <row r="20" s="3" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
+    <row r="20" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="C20" s="10"/>
       <c r="D20" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" s="12"/>
+        <v>67</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>68</v>
+      </c>
       <c r="I20" s="9"/>
-      <c r="J20" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
+      <c r="M20" s="14" t="s">
+        <v>69</v>
+      </c>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
     </row>
-    <row r="21" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
+    <row r="21" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="11"/>
       <c r="D21" s="11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="12"/>
+        <v>70</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>71</v>
+      </c>
       <c r="G21" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>64</v>
+        <v>72</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
+      <c r="J21" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="K21" s="9"/>
       <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
+      <c r="M21" s="10" t="s">
+        <v>75</v>
+      </c>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
     </row>
-    <row r="22" s="3" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" s="3" customFormat="true" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>65</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F22" s="12"/>
       <c r="G22" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H22" s="12"/>
+        <v>76</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="I22" s="9"/>
-      <c r="J22" s="9" t="s">
-        <v>67</v>
-      </c>
+      <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
@@ -2134,128 +2033,10 @@
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
     </row>
-    <row r="23" s="3" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-    </row>
-    <row r="24" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-    </row>
-    <row r="25" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-    </row>
-    <row r="26" s="3" customFormat="true" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-    </row>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2271,7 +2052,7 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="G5:G26" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="G5:G22" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2293,10 +2074,10 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2368,7 +2149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -2430,7 +2211,7 @@
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
     </row>
-    <row r="4" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
         <v>27</v>
       </c>
@@ -2457,9 +2238,7 @@
         <v>22</v>
       </c>
       <c r="L4" s="10"/>
-      <c r="M4" s="14" t="s">
-        <v>32</v>
-      </c>
+      <c r="M4" s="14"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
@@ -2472,11 +2251,11 @@
         <v>2</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="9"/>
@@ -2503,7 +2282,7 @@
         <v>25</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -2513,18 +2292,18 @@
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
       <c r="P6" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>38</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>39</v>
       </c>
       <c r="D7" s="11" t="n">
         <v>1</v>
@@ -2539,7 +2318,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -2558,11 +2337,11 @@
         <v>2</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="9"/>
@@ -2589,7 +2368,7 @@
         <v>25</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -2600,7 +2379,7 @@
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
     </row>
-    <row r="10" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -2608,13 +2387,15 @@
         <v>4</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="12"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
@@ -2639,7 +2420,7 @@
         <v>25</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -2652,26 +2433,26 @@
     </row>
     <row r="12" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="G12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>49</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -2682,51 +2463,53 @@
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
     </row>
-    <row r="13" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
+    <row r="13" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="C13" s="10"/>
       <c r="D13" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="12"/>
+        <v>36</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="I13" s="9"/>
-      <c r="J13" s="9" t="s">
-        <v>50</v>
-      </c>
+      <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
+      <c r="M13" s="14"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
     </row>
-    <row r="14" s="3" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="11" t="n">
-        <v>3</v>
+      <c r="D14" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>44</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H14" s="12"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -2736,36 +2519,26 @@
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
     </row>
-    <row r="15" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>52</v>
-      </c>
+    <row r="15" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="11" t="n">
-        <v>1</v>
+      <c r="D15" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>48</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F15" s="12"/>
       <c r="G15" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>53</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="H15" s="12"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="10"/>
-      <c r="M15" s="14" t="s">
-        <v>32</v>
-      </c>
+      <c r="M15" s="10"/>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
@@ -2775,14 +2548,14 @@
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="9"/>
@@ -2795,25 +2568,33 @@
       <c r="P16" s="10"/>
     </row>
     <row r="17" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="11" t="s">
-        <v>56</v>
+      <c r="D17" s="11" t="n">
+        <v>1</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="12"/>
+        <v>46</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>47</v>
+      </c>
       <c r="G17" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="12"/>
+        <v>36</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
+      <c r="M17" s="14"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
@@ -2822,19 +2603,23 @@
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="11" t="s">
-        <v>58</v>
+      <c r="D18" s="11" t="n">
+        <v>2</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="12"/>
+        <v>32</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="G18" s="12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
+      <c r="J18" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="K18" s="9"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
@@ -2842,115 +2627,121 @@
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
     </row>
-    <row r="19" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>61</v>
-      </c>
+    <row r="19" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>48</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F19" s="12"/>
       <c r="G19" s="12" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="10"/>
-      <c r="M19" s="14" t="s">
-        <v>32</v>
-      </c>
+      <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
     </row>
-    <row r="20" s="3" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
+    <row r="20" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="C20" s="10"/>
       <c r="D20" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" s="12"/>
+        <v>67</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>68</v>
+      </c>
       <c r="I20" s="9"/>
-      <c r="J20" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
+      <c r="M20" s="14" t="s">
+        <v>69</v>
+      </c>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
     </row>
-    <row r="21" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
+    <row r="21" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="11"/>
       <c r="D21" s="11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="12"/>
+        <v>70</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>71</v>
+      </c>
       <c r="G21" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>64</v>
+        <v>72</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
+      <c r="J21" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="K21" s="9"/>
       <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
+      <c r="M21" s="10" t="s">
+        <v>75</v>
+      </c>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
     </row>
-    <row r="22" s="3" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" s="3" customFormat="true" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>65</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F22" s="12"/>
       <c r="G22" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H22" s="12"/>
+        <v>76</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="I22" s="9"/>
-      <c r="J22" s="9" t="s">
-        <v>67</v>
-      </c>
+      <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
@@ -2958,128 +2749,10 @@
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
     </row>
-    <row r="23" s="3" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-    </row>
-    <row r="24" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-    </row>
-    <row r="25" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-    </row>
-    <row r="26" s="3" customFormat="true" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-    </row>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3095,7 +2768,7 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="G5:G26" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="G5:G22" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/sweetest/testcase/Baidu-TestCase.xlsx
+++ b/sweetest/testcase/Baidu-TestCase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="baidu" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="83">
   <si>
     <t xml:space="preserve">用例编号</t>
   </si>
@@ -88,49 +88,46 @@
     <t xml:space="preserve">SETUP</t>
   </si>
   <si>
-    <t xml:space="preserve">打开</t>
-  </si>
-  <si>
-    <t xml:space="preserve">百度搜索链接</t>
-  </si>
-  <si>
-    <t xml:space="preserve">标签页名=百度搜索页面</t>
+    <t xml:space="preserve">执行</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用例片段</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_003</t>
   </si>
   <si>
     <t xml:space="preserve">H</t>
   </si>
   <si>
+    <t xml:space="preserve">BAIDU_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">搜索：自动化测试</t>
+  </si>
+  <si>
+    <t xml:space="preserve">输入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">搜索框</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text=自动化测试,text1=&lt;Keys.ENTER&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击</t>
+  </si>
+  <si>
+    <t xml:space="preserve">搜索按钮</t>
+  </si>
+  <si>
     <t xml:space="preserve">检查</t>
   </si>
   <si>
-    <t xml:space="preserve">百度搜索页面</t>
-  </si>
-  <si>
     <t xml:space="preserve">页面title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">百度一下，你就知道</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAIDU_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">搜索：自动化测试</t>
-  </si>
-  <si>
-    <t xml:space="preserve">输入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">搜索框</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text=自动化测试,text1=&lt;Keys.ENTER&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">点击</t>
-  </si>
-  <si>
-    <t xml:space="preserve">搜索按钮</t>
   </si>
   <si>
     <r>
@@ -167,10 +164,41 @@
     <t xml:space="preserve">SNIPPET</t>
   </si>
   <si>
+    <t xml:space="preserve">百度搜索页面</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;keywords&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;keywords&gt;_百度搜索</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNIPPET_002</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">keywords=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;keywords&gt;,title=&lt;title&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">搜索：第一条结果</t>
   </si>
   <si>
     <t xml:space="preserve">搜索结果#1</t>
@@ -192,6 +220,7 @@
         <color rgb="FFC0504D"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;keywords&gt;</t>
     </r>
@@ -200,16 +229,25 @@
     <t xml:space="preserve">&lt;title&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">打开百度链接</t>
+  </si>
+  <si>
+    <t xml:space="preserve">打开</t>
+  </si>
+  <si>
+    <t xml:space="preserve">百度搜索链接</t>
+  </si>
+  <si>
+    <t xml:space="preserve">标签页名=百度搜索页面</t>
+  </si>
+  <si>
+    <t xml:space="preserve">百度一下，你就知道</t>
+  </si>
+  <si>
     <t xml:space="preserve">BAIDU_002</t>
   </si>
   <si>
     <t xml:space="preserve">搜索：搜狗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">执行</t>
-  </si>
-  <si>
-    <t xml:space="preserve">用例片段</t>
   </si>
   <si>
     <t xml:space="preserve">keywords=搜狗,title=搜狗*</t>
@@ -313,31 +351,28 @@
     <t xml:space="preserve">keywords=&lt;_keywords&gt;, title=&lt;_title&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">SQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oracle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">查询User表#STR_GSYL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STKID=000590</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stkpoolid=STKPOOLID,stkid=STKID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sql#select STKPOOLID,STKID,STKNAME from ir_stkpool_member_etl where STKPOOLID='&lt;stkpoolid&gt;'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STKID=&lt;stkid&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oracle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">查询User表#STR_GSYL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STKID=000590</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stkpoolid=STKPOOLID,stkid=STKID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sql#select STKPOOLID,STKID,STKNAME from ir_stkpool_member_etl where STKPOOLID='&lt;stkpoolid&gt;'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STKID=&lt;stkid&gt;</t>
   </si>
 </sst>
 </file>
@@ -350,7 +385,7 @@
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="0_ ;[RED]\-0\ "/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -421,12 +456,6 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFC0504D"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -531,7 +560,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -551,15 +580,15 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -642,10 +671,10 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
+      <selection pane="bottomLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -657,8 +686,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="39.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="59.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="40.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="40.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="34.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="15.13"/>
@@ -717,7 +747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -733,13 +763,13 @@
       <c r="E2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="G2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="8" t="s">
         <v>21</v>
       </c>
+      <c r="H2" s="8"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="9" t="s">
@@ -751,81 +781,81 @@
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
     </row>
-    <row r="3" s="3" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="6" t="s">
+    <row r="3" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="B3" s="10" t="s">
         <v>24</v>
       </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="9"/>
+      <c r="H3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="M3" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
     </row>
-    <row r="4" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>28</v>
-      </c>
+    <row r="4" s="3" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>31</v>
-      </c>
+      <c r="H4" s="7"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="9" t="s">
-        <v>22</v>
-      </c>
+      <c r="K4" s="9"/>
       <c r="L4" s="10"/>
-      <c r="M4" s="14"/>
+      <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
     </row>
-    <row r="5" s="3" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12" t="s">
+      <c r="H5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="12"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -833,24 +863,34 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-    </row>
-    <row r="6" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="P5" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="D6" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>34</v>
+      <c r="F6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -859,35 +899,23 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
-      <c r="P6" s="10" t="s">
-        <v>35</v>
-      </c>
+      <c r="P6" s="10"/>
     </row>
     <row r="7" s="3" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="12" t="s">
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="H7" s="7"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -897,21 +925,23 @@
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
     </row>
-    <row r="8" s="3" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="12"/>
+      <c r="H8" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -921,22 +951,24 @@
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
     </row>
-    <row r="9" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>40</v>
+        <v>4</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -947,22 +979,28 @@
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
     </row>
-    <row r="10" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
+    <row r="10" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="D10" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12" t="s">
-        <v>41</v>
+        <v>1</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -978,17 +1016,17 @@
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>43</v>
+        <v>2</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -999,114 +1037,128 @@
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
     </row>
-    <row r="12" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11" t="n">
+        <v>47</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="12" t="s">
+      <c r="E12" s="6" t="s">
         <v>48</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="10"/>
-      <c r="M12" s="14"/>
+      <c r="M12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
     </row>
-    <row r="13" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>50</v>
-      </c>
+    <row r="13" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="12" t="s">
+      <c r="D13" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>51</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="10"/>
-      <c r="M13" s="14"/>
+      <c r="M13" s="10"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
     </row>
     <row r="14" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="12"/>
+      <c r="D14" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
+      <c r="M14" s="13"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
     </row>
-    <row r="15" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
+    <row r="15" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="12"/>
+      <c r="D15" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
+      <c r="M15" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
@@ -1116,16 +1168,16 @@
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="12"/>
+        <v>58</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="7"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -1136,33 +1188,25 @@
       <c r="P16" s="10"/>
     </row>
     <row r="17" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>59</v>
-      </c>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>60</v>
       </c>
+      <c r="E17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="7"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="10"/>
-      <c r="M17" s="14"/>
+      <c r="M17" s="10"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
@@ -1171,23 +1215,19 @@
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H18" s="12"/>
+      <c r="E18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="7"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
@@ -1195,118 +1235,116 @@
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
     </row>
-    <row r="19" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
+    <row r="19" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="C19" s="10"/>
       <c r="D19" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>64</v>
+        <v>1</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
+      <c r="M19" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
     </row>
     <row r="20" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>66</v>
-      </c>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="G20" s="7" t="s">
         <v>68</v>
       </c>
+      <c r="H20" s="7"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
+      <c r="J20" s="9" t="s">
+        <v>69</v>
+      </c>
       <c r="K20" s="9"/>
       <c r="L20" s="10"/>
-      <c r="M20" s="14" t="s">
-        <v>69</v>
-      </c>
+      <c r="M20" s="10"/>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
     </row>
     <row r="21" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>73</v>
-      </c>
       <c r="I21" s="9"/>
-      <c r="J21" s="9" t="s">
-        <v>74</v>
-      </c>
+      <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="10"/>
-      <c r="M21" s="10" t="s">
-        <v>75</v>
-      </c>
+      <c r="M21" s="10"/>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
     </row>
-    <row r="22" s="3" customFormat="true" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
+    <row r="22" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="10"/>
       <c r="D22" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>77</v>
+        <v>1</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1317,8 +1355,68 @@
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
     </row>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K23" s="9"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+    </row>
+    <row r="24" s="3" customFormat="true" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+    </row>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1328,7 +1426,7 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="G2:G4" type="none">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="G3 G12:G13" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1336,7 +1434,7 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="G5:G22" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="G2 G4:G11 G14:G24" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1447,14 +1545,14 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="F2" s="6"/>
-      <c r="G2" s="7" t="s">
-        <v>20</v>
+      <c r="G2" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -1475,16 +1573,16 @@
         <v>2</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -1497,24 +1595,24 @@
     </row>
     <row r="4" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>31</v>
+      <c r="E4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -1522,7 +1620,7 @@
         <v>22</v>
       </c>
       <c r="L4" s="10"/>
-      <c r="M4" s="14"/>
+      <c r="M4" s="13"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
@@ -1534,14 +1632,14 @@
       <c r="D5" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="12"/>
+      <c r="E5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="7"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -1558,15 +1656,15 @@
       <c r="D6" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12" t="s">
-        <v>25</v>
+      <c r="E6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -1576,32 +1674,32 @@
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
       <c r="P6" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="D7" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="12" t="s">
+      <c r="E7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>39</v>
       </c>
       <c r="I7" s="9"/>
@@ -1620,14 +1718,14 @@
       <c r="D8" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="12"/>
+      <c r="E8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="7"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -1644,14 +1742,14 @@
       <c r="D9" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="12" t="s">
+      <c r="E9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>40</v>
       </c>
       <c r="I9" s="9"/>
@@ -1670,15 +1768,15 @@
       <c r="D10" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12" t="s">
-        <v>41</v>
+      <c r="E10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1696,15 +1794,15 @@
       <c r="D11" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>43</v>
+      <c r="E11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1717,64 +1815,64 @@
     </row>
     <row r="12" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>48</v>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="10"/>
-      <c r="M12" s="14"/>
+      <c r="M12" s="13"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
     </row>
     <row r="13" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>51</v>
+      <c r="E13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="10"/>
-      <c r="M13" s="14"/>
+      <c r="M13" s="13"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
@@ -1784,16 +1882,16 @@
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="12"/>
+        <v>58</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="7"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -1808,16 +1906,16 @@
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="12"/>
+        <v>60</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="7"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -1832,16 +1930,16 @@
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="12"/>
+        <v>62</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="7"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -1853,32 +1951,32 @@
     </row>
     <row r="17" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>60</v>
+      <c r="E17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="10"/>
-      <c r="M17" s="14"/>
+      <c r="M17" s="13"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
@@ -1890,19 +1988,19 @@
       <c r="D18" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" s="12"/>
+      <c r="E18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="7"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="10"/>
@@ -1918,15 +2016,15 @@
       <c r="D19" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>64</v>
+      <c r="E19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1939,33 +2037,33 @@
     </row>
     <row r="20" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>68</v>
+      <c r="E20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="10"/>
-      <c r="M20" s="14" t="s">
-        <v>69</v>
+      <c r="M20" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
@@ -1973,35 +2071,35 @@
     </row>
     <row r="21" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>73</v>
+      <c r="E21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K21" s="9"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
@@ -2014,15 +2112,15 @@
       <c r="D22" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>77</v>
+      <c r="E22" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2074,7 +2172,7 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
@@ -2163,14 +2261,14 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="F2" s="6"/>
-      <c r="G2" s="7" t="s">
-        <v>20</v>
+      <c r="G2" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -2191,16 +2289,16 @@
         <v>2</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -2213,24 +2311,24 @@
     </row>
     <row r="4" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>31</v>
+      <c r="E4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -2238,7 +2336,7 @@
         <v>22</v>
       </c>
       <c r="L4" s="10"/>
-      <c r="M4" s="14"/>
+      <c r="M4" s="13"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
@@ -2250,14 +2348,14 @@
       <c r="D5" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="12"/>
+      <c r="E5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="7"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -2274,15 +2372,15 @@
       <c r="D6" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12" t="s">
-        <v>25</v>
+      <c r="E6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -2292,32 +2390,32 @@
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
       <c r="P6" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="D7" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="12" t="s">
+      <c r="E7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>39</v>
       </c>
       <c r="I7" s="9"/>
@@ -2336,14 +2434,14 @@
       <c r="D8" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="12"/>
+      <c r="E8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="7"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -2360,14 +2458,14 @@
       <c r="D9" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="12" t="s">
+      <c r="E9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>40</v>
       </c>
       <c r="I9" s="9"/>
@@ -2386,15 +2484,15 @@
       <c r="D10" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12" t="s">
-        <v>41</v>
+      <c r="E10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -2412,15 +2510,15 @@
       <c r="D11" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>43</v>
+      <c r="E11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -2433,64 +2531,64 @@
     </row>
     <row r="12" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>48</v>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="10"/>
-      <c r="M12" s="14"/>
+      <c r="M12" s="13"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
     </row>
     <row r="13" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>51</v>
+      <c r="E13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="10"/>
-      <c r="M13" s="14"/>
+      <c r="M13" s="13"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
@@ -2500,16 +2598,16 @@
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="12"/>
+        <v>58</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="7"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -2524,16 +2622,16 @@
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="12"/>
+        <v>60</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="7"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -2548,16 +2646,16 @@
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="12"/>
+        <v>62</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="7"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -2569,32 +2667,32 @@
     </row>
     <row r="17" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>60</v>
+      <c r="E17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="10"/>
-      <c r="M17" s="14"/>
+      <c r="M17" s="13"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
@@ -2606,19 +2704,19 @@
       <c r="D18" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" s="12"/>
+      <c r="E18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="7"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="10"/>
@@ -2634,15 +2732,15 @@
       <c r="D19" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>64</v>
+      <c r="E19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2655,33 +2753,33 @@
     </row>
     <row r="20" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>68</v>
+      <c r="E20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="10"/>
-      <c r="M20" s="14" t="s">
-        <v>69</v>
+      <c r="M20" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
@@ -2689,35 +2787,35 @@
     </row>
     <row r="21" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>73</v>
+      <c r="E21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K21" s="9"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
@@ -2730,15 +2828,15 @@
       <c r="D22" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>77</v>
+      <c r="E22" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>

--- a/sweetest/testcase/Baidu-TestCase.xlsx
+++ b/sweetest/testcase/Baidu-TestCase.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="84">
   <si>
     <t xml:space="preserve">用例编号</t>
   </si>
@@ -109,13 +109,13 @@
     <t xml:space="preserve">输入</t>
   </si>
   <si>
+    <t xml:space="preserve">百度搜索页面</t>
+  </si>
+  <si>
     <t xml:space="preserve">搜索框</t>
   </si>
   <si>
     <t xml:space="preserve">text=自动化测试,text1=&lt;Keys.ENTER&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
   </si>
   <si>
     <t xml:space="preserve">点击</t>
@@ -164,13 +164,99 @@
     <t xml:space="preserve">SNIPPET</t>
   </si>
   <si>
-    <t xml:space="preserve">百度搜索页面</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;keywords&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;keywords&gt;_百度搜索</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">^&lt;keywords&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">\, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">_百度搜索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">]</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">SNIPPET_002</t>
@@ -281,6 +367,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
     <t xml:space="preserve">^2</t>
   </si>
   <si>
@@ -370,6 +459,9 @@
   </si>
   <si>
     <t xml:space="preserve">STKID=&lt;stkid&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;keywords&gt;_百度搜索</t>
   </si>
   <si>
     <t xml:space="preserve">Y</t>
@@ -674,7 +766,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -795,12 +887,14 @@
       <c r="E3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="G3" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -808,9 +902,7 @@
         <v>22</v>
       </c>
       <c r="L3" s="10"/>
-      <c r="M3" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="M3" s="13"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
@@ -884,13 +976,13 @@
         <v>25</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -925,7 +1017,7 @@
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
     </row>
-    <row r="8" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -940,7 +1032,7 @@
         <v>32</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -965,10 +1057,10 @@
         <v>20</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -981,10 +1073,10 @@
     </row>
     <row r="10" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>37</v>
@@ -997,10 +1089,10 @@
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1026,7 +1118,7 @@
         <v>32</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1042,7 +1134,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>37</v>
@@ -1051,14 +1143,14 @@
         <v>1</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1080,13 +1172,13 @@
         <v>31</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>32</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1099,10 +1191,10 @@
     </row>
     <row r="14" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>52</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>53</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="11" t="n">
@@ -1118,7 +1210,7 @@
         <v>35</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1131,10 +1223,10 @@
     </row>
     <row r="15" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>56</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="11" t="n">
@@ -1150,14 +1242,14 @@
         <v>35</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="10"/>
       <c r="M15" s="13" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
@@ -1263,7 +1355,7 @@
       <c r="K19" s="9"/>
       <c r="L19" s="10"/>
       <c r="M19" s="10" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -1385,7 +1477,7 @@
       <c r="K23" s="9"/>
       <c r="L23" s="10"/>
       <c r="M23" s="10" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
@@ -1426,11 +1518,11 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="G3 G12:G13" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="E1" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="E1" type="none">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="G3 G12:G13" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1545,14 +1637,14 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -1576,13 +1668,13 @@
         <v>31</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>32</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -1609,10 +1701,10 @@
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -1694,13 +1786,13 @@
         <v>25</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -1750,7 +1842,7 @@
         <v>32</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1773,10 +1865,10 @@
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1802,7 +1894,7 @@
         <v>32</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1815,10 +1907,10 @@
     </row>
     <row r="12" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>52</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>53</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="11" t="n">
@@ -1834,7 +1926,7 @@
         <v>35</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1847,10 +1939,10 @@
     </row>
     <row r="13" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>56</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="11" t="n">
@@ -1866,7 +1958,7 @@
         <v>35</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -2063,7 +2155,7 @@
       <c r="K20" s="9"/>
       <c r="L20" s="10"/>
       <c r="M20" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
@@ -2099,7 +2191,7 @@
       <c r="K21" s="9"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
@@ -2261,14 +2353,14 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -2292,13 +2384,13 @@
         <v>31</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>32</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -2325,10 +2417,10 @@
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -2410,13 +2502,13 @@
         <v>25</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -2466,7 +2558,7 @@
         <v>32</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -2489,10 +2581,10 @@
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -2518,7 +2610,7 @@
         <v>32</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -2531,10 +2623,10 @@
     </row>
     <row r="12" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>52</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>53</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="11" t="n">
@@ -2550,7 +2642,7 @@
         <v>35</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -2563,10 +2655,10 @@
     </row>
     <row r="13" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>56</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="11" t="n">
@@ -2582,7 +2674,7 @@
         <v>35</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -2779,7 +2871,7 @@
       <c r="K20" s="9"/>
       <c r="L20" s="10"/>
       <c r="M20" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
@@ -2815,7 +2907,7 @@
       <c r="K21" s="9"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>

--- a/sweetest/testcase/Baidu-TestCase.xlsx
+++ b/sweetest/testcase/Baidu-TestCase.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="87">
   <si>
     <t xml:space="preserve">用例编号</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t xml:space="preserve">H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOME_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEARDOWN</t>
   </si>
   <si>
     <t xml:space="preserve">BAIDU_001</t>
@@ -339,6 +345,9 @@
     <t xml:space="preserve">keywords=搜狗,title=搜狗*</t>
   </si>
   <si>
+    <t xml:space="preserve">y</t>
+  </si>
+  <si>
     <t xml:space="preserve">BAIDU_003</t>
   </si>
   <si>
@@ -440,6 +449,9 @@
     <t xml:space="preserve">keywords=&lt;_keywords&gt;, title=&lt;_title&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
     <t xml:space="preserve">SQL</t>
   </si>
   <si>
@@ -462,9 +474,6 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;keywords&gt;_百度搜索</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
   </si>
 </sst>
 </file>
@@ -766,7 +775,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="N26" activeCellId="0" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -874,69 +883,77 @@
       <c r="P2" s="10"/>
     </row>
     <row r="3" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11" t="n">
+      <c r="D3" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>25</v>
+      <c r="E3" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9" t="s">
-        <v>22</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="9"/>
       <c r="L3" s="10"/>
-      <c r="M3" s="13"/>
+      <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
     </row>
-    <row r="4" s="3" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+    <row r="4" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="C4" s="10"/>
       <c r="D4" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="7"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="K4" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="M4" s="13"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
     </row>
-    <row r="5" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="3" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>31</v>
@@ -945,9 +962,7 @@
       <c r="G5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="H5" s="7"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -955,34 +970,24 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="10"/>
+    </row>
+    <row r="6" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" s="3" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -991,23 +996,35 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
+      <c r="P6" s="10" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" s="3" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
+      <c r="A7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="D7" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -1017,12 +1034,12 @@
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
     </row>
-    <row r="8" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="3" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>31</v>
@@ -1031,9 +1048,7 @@
       <c r="G8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="H8" s="7"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -1048,16 +1063,14 @@
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>20</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>41</v>
@@ -1071,28 +1084,24 @@
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
     </row>
-    <row r="10" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="10" t="s">
+    <row r="10" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1104,21 +1113,27 @@
       <c r="P10" s="10"/>
     </row>
     <row r="11" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+      <c r="A11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="D11" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="7" t="s">
         <v>45</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1129,28 +1144,22 @@
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
     </row>
-    <row r="12" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="6" t="s">
+    <row r="12" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1162,23 +1171,27 @@
       <c r="P12" s="10"/>
     </row>
     <row r="13" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
+      <c r="A13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="D13" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>26</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F13" s="6"/>
       <c r="G13" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="14" t="s">
         <v>50</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1189,44 +1202,40 @@
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
     </row>
-    <row r="14" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="10" t="s">
+    <row r="14" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="10"/>
-      <c r="M14" s="13"/>
+      <c r="M14" s="10"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
     </row>
-    <row r="15" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>55</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="11" t="n">
@@ -1239,42 +1248,52 @@
         <v>20</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="10"/>
       <c r="M15" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
     </row>
-    <row r="16" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
+    <row r="16" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="11" t="s">
-        <v>58</v>
+      <c r="D16" s="11" t="n">
+        <v>1</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="G16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H16" s="7"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
+      <c r="M16" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
@@ -1284,14 +1303,14 @@
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="9"/>
@@ -1308,14 +1327,14 @@
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="9"/>
@@ -1327,64 +1346,60 @@
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
     </row>
-    <row r="19" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="10" t="s">
+    <row r="19" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11" t="n">
-        <v>1</v>
-      </c>
       <c r="E19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>20</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F19" s="7"/>
       <c r="G19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="7" t="s">
         <v>66</v>
       </c>
+      <c r="H19" s="7"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="10"/>
-      <c r="M19" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
     </row>
-    <row r="20" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
+    <row r="20" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>68</v>
+      </c>
       <c r="C20" s="10"/>
       <c r="D20" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="I20" s="9"/>
-      <c r="J20" s="9" t="s">
-        <v>69</v>
-      </c>
+      <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
+      <c r="M20" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
@@ -1394,20 +1409,22 @@
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>70</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="H21" s="7"/>
       <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
+      <c r="J21" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="K21" s="9"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
@@ -1416,27 +1433,21 @@
       <c r="P21" s="10"/>
     </row>
     <row r="22" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>72</v>
-      </c>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>20</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1449,67 +1460,100 @@
     </row>
     <row r="23" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="11"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H23" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="I23" s="9"/>
-      <c r="J23" s="9" t="s">
-        <v>79</v>
-      </c>
+      <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="10"/>
       <c r="M23" s="10" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
     </row>
-    <row r="24" s="3" customFormat="true" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
+    <row r="24" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="G24" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
+      <c r="J24" s="9" t="s">
+        <v>83</v>
+      </c>
       <c r="K24" s="9"/>
       <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
+      <c r="M24" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
     </row>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" s="3" customFormat="true" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+    </row>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1522,11 +1566,11 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="G3 G12:G13" type="none">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="G4 G13:G14" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="G2 G4:G11 G14:G24" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="G2:G3 G5:G12 G15:G25" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1637,14 +1681,14 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -1665,16 +1709,16 @@
         <v>2</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -1687,24 +1731,24 @@
     </row>
     <row r="4" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -1725,11 +1769,11 @@
         <v>2</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="9"/>
@@ -1749,14 +1793,14 @@
         <v>3</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -1766,33 +1810,33 @@
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
       <c r="P6" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D7" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -1811,11 +1855,11 @@
         <v>2</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="9"/>
@@ -1835,14 +1879,14 @@
         <v>3</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1861,14 +1905,14 @@
         <v>4</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1887,14 +1931,14 @@
         <v>5</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1907,10 +1951,10 @@
     </row>
     <row r="12" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="11" t="n">
@@ -1923,10 +1967,10 @@
         <v>20</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1939,10 +1983,10 @@
     </row>
     <row r="13" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="11" t="n">
@@ -1955,10 +1999,10 @@
         <v>20</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1974,14 +2018,14 @@
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="9"/>
@@ -1998,14 +2042,14 @@
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="9"/>
@@ -2022,14 +2066,14 @@
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="9"/>
@@ -2043,10 +2087,10 @@
     </row>
     <row r="17" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="11" t="n">
@@ -2059,10 +2103,10 @@
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2081,18 +2125,18 @@
         <v>2</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="10"/>
@@ -2109,14 +2153,14 @@
         <v>3</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2129,10 +2173,10 @@
     </row>
     <row r="20" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="11" t="n">
@@ -2145,17 +2189,17 @@
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="10"/>
       <c r="M20" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
@@ -2163,35 +2207,35 @@
     </row>
     <row r="21" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K21" s="9"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
@@ -2205,14 +2249,14 @@
         <v>2</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2353,14 +2397,14 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -2381,16 +2425,16 @@
         <v>2</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -2403,24 +2447,24 @@
     </row>
     <row r="4" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -2441,11 +2485,11 @@
         <v>2</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="9"/>
@@ -2465,14 +2509,14 @@
         <v>3</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -2482,33 +2526,33 @@
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
       <c r="P6" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D7" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -2527,11 +2571,11 @@
         <v>2</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="9"/>
@@ -2551,14 +2595,14 @@
         <v>3</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -2577,14 +2621,14 @@
         <v>4</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -2603,14 +2647,14 @@
         <v>5</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -2623,10 +2667,10 @@
     </row>
     <row r="12" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="11" t="n">
@@ -2639,10 +2683,10 @@
         <v>20</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -2655,10 +2699,10 @@
     </row>
     <row r="13" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="11" t="n">
@@ -2671,10 +2715,10 @@
         <v>20</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -2690,14 +2734,14 @@
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="9"/>
@@ -2714,14 +2758,14 @@
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="9"/>
@@ -2738,14 +2782,14 @@
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="9"/>
@@ -2759,10 +2803,10 @@
     </row>
     <row r="17" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="11" t="n">
@@ -2775,10 +2819,10 @@
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2797,18 +2841,18 @@
         <v>2</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="10"/>
@@ -2825,14 +2869,14 @@
         <v>3</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2845,10 +2889,10 @@
     </row>
     <row r="20" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="11" t="n">
@@ -2861,17 +2905,17 @@
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="10"/>
       <c r="M20" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
@@ -2879,35 +2923,35 @@
     </row>
     <row r="21" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K21" s="9"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
@@ -2921,14 +2965,14 @@
         <v>2</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>

--- a/sweetest/testcase/Baidu-TestCase.xlsx
+++ b/sweetest/testcase/Baidu-TestCase.xlsx
@@ -775,7 +775,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="N26" activeCellId="0" sqref="N26"/>
+      <selection pane="bottomLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -914,7 +914,7 @@
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
     </row>
-    <row r="4" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="3" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
         <v>25</v>
       </c>
